--- a/module/waapi/waapi_Auto_Import_ExternalSource/SilverPalace_Voice_ExternalSource.xlsx
+++ b/module/waapi/waapi_Auto_Import_ExternalSource/SilverPalace_Voice_ExternalSource.xlsx
@@ -1738,8 +1738,8 @@
   </sheetPr>
   <dimension ref="A1:X468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="H51" s="13" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>cancel</t>
         </is>
       </c>
       <c r="I51" s="13" t="inlineStr">
